--- a/Watershed_Tools/watershed_chart.xlsx
+++ b/Watershed_Tools/watershed_chart.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -203,15 +203,9 @@
     <t>%</t>
   </si>
   <si>
-    <t>above are precon lengths; waiting on construction lengths</t>
-  </si>
-  <si>
     <t>Reach Runoff</t>
   </si>
   <si>
-    <t>Catchment Assessment</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -222,6 +216,9 @@
   </si>
   <si>
     <t>Watershed A (ac)</t>
+  </si>
+  <si>
+    <t>Infilitration</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,9 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +299,13 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -456,9 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -473,9 +478,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -490,9 +492,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,17 +532,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,25 +552,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.453125" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" style="4" customWidth="1"/>
@@ -919,1373 +930,1376 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="93" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+    </row>
+    <row r="2" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87" t="s">
+      <c r="L2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-    </row>
-    <row r="2" spans="1:38" s="76" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="75" t="s">
+      <c r="R2" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="99">
         <v>3</v>
       </c>
-      <c r="F2" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="100">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="26">
         <v>19064</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="27">
         <v>61660</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="28">
         <v>13833</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="78">
         <f>D3/SUM($D3:$F3)</f>
         <v>0.20161384138667682</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="78">
         <f t="shared" ref="H3:I3" si="0">E3/SUM($D3:$F3)</f>
         <v>0.65209344628107913</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="78">
         <f t="shared" si="0"/>
         <v>0.14629271233224406</v>
       </c>
-      <c r="J3" s="95">
+      <c r="J3" s="81">
         <f>L3+Q3</f>
         <v>23.367909000000001</v>
       </c>
-      <c r="K3" s="99">
+      <c r="K3" s="82">
         <f>J3/640</f>
         <v>3.65123578125E-2</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="71">
         <v>23.367909000000001</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36">
-        <f>$L3*(D3/(SUM($D3:$F3)))</f>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30">
+        <f t="shared" ref="N3:P9" si="1">$L3*(D3/(SUM($D3:$F3)))</f>
         <v>4.711293898664298</v>
       </c>
-      <c r="O3" s="36">
-        <f>$L3*(E3/(SUM($D3:$F3)))</f>
+      <c r="O3" s="30">
+        <f t="shared" si="1"/>
         <v>15.238060312192646</v>
       </c>
-      <c r="P3" s="36">
-        <f>$L3*(F3/(SUM($D3:$F3)))</f>
+      <c r="P3" s="30">
+        <f t="shared" si="1"/>
         <v>3.418554789143057</v>
       </c>
-      <c r="Q3" s="37">
-        <v>0</v>
-      </c>
-      <c r="R3" s="36">
-        <v>0</v>
-      </c>
-      <c r="S3" s="36">
-        <v>0</v>
-      </c>
-      <c r="T3" s="36">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="40">
-        <f t="shared" ref="X3" si="1">W3*M3*0.0000229568</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="40">
-        <f t="shared" ref="Y3" si="2">X3*V3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="41">
-        <f t="shared" ref="Z3" si="3">Y3-O3</f>
+      <c r="Q3" s="90">
+        <v>0</v>
+      </c>
+      <c r="R3" s="91">
+        <v>0</v>
+      </c>
+      <c r="S3" s="91">
+        <v>0</v>
+      </c>
+      <c r="T3" s="91">
+        <v>0</v>
+      </c>
+      <c r="U3" s="92">
+        <v>0</v>
+      </c>
+      <c r="V3" s="33"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="34">
+        <f t="shared" ref="X3" si="2">W3*M3*0.0000229568</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="34">
+        <f t="shared" ref="Y3" si="3">X3*V3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="35">
+        <f t="shared" ref="Z3" si="4">Y3-O3</f>
         <v>-15.238060312192646</v>
       </c>
-      <c r="AA3" s="37">
-        <f t="shared" ref="AA3" si="4">IF(Z3&lt;=0,N3+Y3,N3+Y3-Z3)</f>
+      <c r="AA3" s="31">
+        <f t="shared" ref="AA3" si="5">IF(Z3&lt;=0,N3+Y3,N3+Y3-Z3)</f>
         <v>4.711293898664298</v>
       </c>
-      <c r="AB3" s="36">
-        <f t="shared" ref="AB3" si="5">IF(Z3&lt;=0,O3-Y3,O3-Y3+Z3)</f>
+      <c r="AB3" s="30">
+        <f t="shared" ref="AB3" si="6">IF(Z3&lt;=0,O3-Y3,O3-Y3+Z3)</f>
         <v>15.238060312192646</v>
       </c>
-      <c r="AC3" s="38">
-        <f t="shared" ref="AC3" si="6">P3</f>
+      <c r="AC3" s="32">
+        <f t="shared" ref="AC3" si="7">P3</f>
         <v>3.418554789143057</v>
       </c>
-      <c r="AD3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="81"/>
-    </row>
-    <row r="4" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29">
+      <c r="AD3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="91">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="69"/>
+    </row>
+    <row r="4" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="100">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="26">
         <v>10869</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="27">
         <v>18903</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="28">
         <v>743</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="78">
         <f>D4/SUM($D4:$F4)</f>
         <v>0.35618548254956578</v>
       </c>
-      <c r="H4" s="77">
-        <f t="shared" ref="H4:H5" si="7">E4/SUM($D4:$F4)</f>
+      <c r="H4" s="78">
+        <f t="shared" ref="H4:H5" si="8">E4/SUM($D4:$F4)</f>
         <v>0.61946583647386533</v>
       </c>
-      <c r="I4" s="77">
-        <f t="shared" ref="I4:I5" si="8">F4/SUM($D4:$F4)</f>
+      <c r="I4" s="78">
+        <f t="shared" ref="I4:I5" si="9">F4/SUM($D4:$F4)</f>
         <v>2.43486809765689E-2</v>
       </c>
-      <c r="J4" s="95">
-        <f t="shared" ref="J4:J11" si="9">L4+Q4</f>
+      <c r="J4" s="81">
+        <f t="shared" ref="J4:J11" si="10">L4+Q4</f>
         <v>30.906182000000001</v>
       </c>
-      <c r="K4" s="99">
-        <f t="shared" ref="K4:K11" si="10">J4/640</f>
+      <c r="K4" s="82">
+        <f t="shared" ref="K4:K11" si="11">J4/640</f>
         <v>4.8290909375000003E-2</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="71">
         <v>7.5382730000000002</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="29">
         <v>634.60004700000002</v>
       </c>
-      <c r="N4" s="36">
-        <f>$L4*(D4/(SUM($D4:$F4)))</f>
+      <c r="N4" s="30">
+        <f t="shared" si="1"/>
         <v>2.6850234060953628</v>
       </c>
-      <c r="O4" s="36">
-        <f>$L4*(E4/(SUM($D4:$F4)))</f>
+      <c r="O4" s="30">
+        <f t="shared" si="1"/>
         <v>4.6697025895133546</v>
       </c>
-      <c r="P4" s="36">
-        <f>$L4*(F4/(SUM($D4:$F4)))</f>
+      <c r="P4" s="30">
+        <f t="shared" si="1"/>
         <v>0.18354700439128296</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="90">
         <f>SUM(L$3:L3)</f>
         <v>23.367909000000001</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="91">
         <f>SUM(M$3:M3)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="91">
         <f>SUM(N$3:N3)</f>
         <v>4.711293898664298</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="91">
         <f>SUM(O$3:O3)</f>
         <v>15.238060312192646</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="92">
         <f>SUM(P$3:P3)</f>
         <v>3.418554789143057</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="33">
         <v>0.25</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="27">
         <v>30</v>
       </c>
-      <c r="X4" s="40">
-        <f t="shared" ref="X4:X9" si="11">W4*M4*0.0000229568</f>
+      <c r="X4" s="34">
+        <f t="shared" ref="X4:X9" si="12">W4*M4*0.0000229568</f>
         <v>0.43705159076908801</v>
       </c>
-      <c r="Y4" s="40">
-        <f t="shared" ref="Y4:Y9" si="12">X4*V4</f>
+      <c r="Y4" s="34">
+        <f t="shared" ref="Y4:Y9" si="13">X4*V4</f>
         <v>0.109262897692272</v>
       </c>
-      <c r="Z4" s="41">
-        <f t="shared" ref="Z4:Z9" si="13">Y4-O4</f>
+      <c r="Z4" s="35">
+        <f t="shared" ref="Z4:Z9" si="14">Y4-O4</f>
         <v>-4.5604396918210828</v>
       </c>
-      <c r="AA4" s="37">
-        <f t="shared" ref="AA4:AA11" si="14">IF(Z4&lt;=0,N4+Y4,N4+Y4-Z4)</f>
+      <c r="AA4" s="31">
+        <f t="shared" ref="AA4:AA11" si="15">IF(Z4&lt;=0,N4+Y4,N4+Y4-Z4)</f>
         <v>2.7942863037876347</v>
       </c>
-      <c r="AB4" s="36">
-        <f t="shared" ref="AB4:AB9" si="15">IF(Z4&lt;=0,O4-Y4,O4-Y4+Z4)</f>
+      <c r="AB4" s="30">
+        <f t="shared" ref="AB4:AB9" si="16">IF(Z4&lt;=0,O4-Y4,O4-Y4+Z4)</f>
         <v>4.5604396918210828</v>
       </c>
-      <c r="AC4" s="38">
-        <f t="shared" ref="AC4:AC9" si="16">P4</f>
+      <c r="AC4" s="32">
+        <f t="shared" ref="AC4:AC9" si="17">P4</f>
         <v>0.18354700439128296</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="90">
         <f>SUM(AA$3:AA3)</f>
         <v>4.711293898664298</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="91">
         <f>SUM(AB$3:AB3)</f>
         <v>15.238060312192646</v>
       </c>
-      <c r="AF4" s="38">
+      <c r="AF4" s="92">
         <f>SUM(AC$3:AC3)</f>
         <v>3.418554789143057</v>
       </c>
-      <c r="AG4" s="42">
+      <c r="AG4" s="36">
         <f>(L4-(O4+P4))/L4</f>
         <v>0.35618548254956578</v>
       </c>
-      <c r="AH4" s="43">
-        <f t="shared" ref="AH4:AH9" si="17">(L4-(AB4+AC4))/L4</f>
+      <c r="AH4" s="37">
+        <f t="shared" ref="AH4:AH9" si="18">(L4-(AB4+AC4))/L4</f>
         <v>0.37067990291511527</v>
       </c>
-      <c r="AI4" s="44">
-        <f t="shared" ref="AI4:AI9" si="18">AH4-AG4</f>
+      <c r="AI4" s="38">
+        <f t="shared" ref="AI4:AI9" si="19">AH4-AG4</f>
         <v>1.4494420365549487E-2</v>
       </c>
-      <c r="AJ4" s="42">
+      <c r="AJ4" s="36">
         <f>SUMPRODUCT(S4:U4,$B$17:$D$17)/Q4</f>
         <v>0.33203253064289268</v>
       </c>
-      <c r="AK4" s="43">
+      <c r="AK4" s="37">
         <f>SUMPRODUCT(AD4:AF4,$B$17:$D$17)/Q4</f>
         <v>0.33203253064289268</v>
       </c>
-      <c r="AL4" s="81">
-        <f t="shared" ref="AL4:AL9" si="19">AK4-AJ4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="AL4" s="69">
+        <f t="shared" ref="AL4:AL9" si="20">AK4-AJ4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="102">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="103">
+        <v>0</v>
+      </c>
+      <c r="C5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>536480</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>2155188</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>214161</v>
       </c>
-      <c r="G5" s="78">
-        <f t="shared" ref="G5:G9" si="20">D5/SUM($D5:$F5)</f>
+      <c r="G5" s="79">
+        <f t="shared" ref="G5:G9" si="21">D5/SUM($D5:$F5)</f>
         <v>0.18462201320174038</v>
       </c>
-      <c r="H5" s="78">
-        <f t="shared" si="7"/>
+      <c r="H5" s="79">
+        <f t="shared" si="8"/>
         <v>0.74167750407887045</v>
       </c>
-      <c r="I5" s="78">
-        <f t="shared" si="8"/>
+      <c r="I5" s="79">
+        <f t="shared" si="9"/>
         <v>7.3700482719389199E-2</v>
       </c>
-      <c r="J5" s="96">
-        <f t="shared" si="9"/>
+      <c r="J5" s="83">
+        <f t="shared" si="10"/>
         <v>718.058716</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="84">
+        <f t="shared" si="11"/>
+        <v>1.1219667437500001</v>
+      </c>
+      <c r="L5" s="72">
+        <v>718.058716</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16">
+        <f t="shared" si="1"/>
+        <v>132.56944574497675</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="1"/>
+        <v>532.56799626495854</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="1"/>
+        <v>52.921273990064797</v>
+      </c>
+      <c r="Q5" s="93">
+        <v>0</v>
+      </c>
+      <c r="R5" s="94">
+        <v>0</v>
+      </c>
+      <c r="S5" s="94">
+        <v>0</v>
+      </c>
+      <c r="T5" s="94">
+        <v>0</v>
+      </c>
+      <c r="U5" s="95">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <f t="shared" si="14"/>
+        <v>-532.56799626495854</v>
+      </c>
+      <c r="AA5" s="17">
+        <f t="shared" si="15"/>
+        <v>132.56944574497675</v>
+      </c>
+      <c r="AB5" s="16">
+        <f t="shared" si="16"/>
+        <v>532.56799626495854</v>
+      </c>
+      <c r="AC5" s="18">
+        <f t="shared" si="17"/>
+        <v>52.921273990064797</v>
+      </c>
+      <c r="AD5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="94">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="95">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="70"/>
+    </row>
+    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="102">
+        <v>5</v>
+      </c>
+      <c r="B6" s="103">
+        <v>1</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <v>235192</v>
+      </c>
+      <c r="E6" s="13">
+        <v>413565</v>
+      </c>
+      <c r="F6" s="14">
+        <v>134638</v>
+      </c>
+      <c r="G6" s="79">
+        <f t="shared" si="21"/>
+        <v>0.30022147192667809</v>
+      </c>
+      <c r="H6" s="79">
+        <f t="shared" ref="H6:H11" si="22">E6/SUM($D6:$F6)</f>
+        <v>0.52791375998059731</v>
+      </c>
+      <c r="I6" s="79">
+        <f t="shared" ref="I6:I11" si="23">F6/SUM($D6:$F6)</f>
+        <v>0.17186476809272461</v>
+      </c>
+      <c r="J6" s="83">
         <f t="shared" si="10"/>
-        <v>1.1219667437500001</v>
-      </c>
-      <c r="L5" s="92">
-        <v>718.058716</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19">
-        <f>$L5*(D5/(SUM($D5:$F5)))</f>
-        <v>132.56944574497675</v>
-      </c>
-      <c r="O5" s="19">
-        <f>$L5*(E5/(SUM($D5:$F5)))</f>
-        <v>532.56799626495854</v>
-      </c>
-      <c r="P5" s="19">
-        <f>$L5*(F5/(SUM($D5:$F5)))</f>
-        <v>52.921273990064797</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="23">
+        <v>1113.938202</v>
+      </c>
+      <c r="K6" s="84">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="24">
-        <f t="shared" si="13"/>
-        <v>-532.56799626495854</v>
-      </c>
-      <c r="AA5" s="20">
-        <f t="shared" si="14"/>
-        <v>132.56944574497675</v>
-      </c>
-      <c r="AB5" s="19">
-        <f t="shared" si="15"/>
-        <v>532.56799626495854</v>
-      </c>
-      <c r="AC5" s="21">
-        <f t="shared" si="16"/>
-        <v>52.921273990064797</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="21">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="82"/>
-    </row>
-    <row r="6" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15">
-        <v>235192</v>
-      </c>
-      <c r="E6" s="16">
-        <v>413565</v>
-      </c>
-      <c r="F6" s="17">
-        <v>134638</v>
-      </c>
-      <c r="G6" s="78">
-        <f t="shared" si="20"/>
-        <v>0.30022147192667809</v>
-      </c>
-      <c r="H6" s="78">
-        <f t="shared" ref="H6:H11" si="21">E6/SUM($D6:$F6)</f>
-        <v>0.52791375998059731</v>
-      </c>
-      <c r="I6" s="78">
-        <f t="shared" ref="I6:I11" si="22">F6/SUM($D6:$F6)</f>
-        <v>0.17186476809272461</v>
-      </c>
-      <c r="J6" s="96">
-        <f t="shared" si="9"/>
-        <v>1113.6382020000001</v>
-      </c>
-      <c r="K6" s="100">
-        <f t="shared" si="10"/>
-        <v>1.7400596906250001</v>
-      </c>
-      <c r="L6" s="92">
+        <v>1.7405284406250001</v>
+      </c>
+      <c r="L6" s="72">
         <v>193.57445899999999</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="15">
         <v>1462.2501239999999</v>
       </c>
-      <c r="N6" s="19">
-        <f>$L6*(D6/(SUM($D6:$F6)))</f>
+      <c r="N6" s="16">
+        <f t="shared" si="1"/>
         <v>58.115209008390394</v>
       </c>
-      <c r="O6" s="19">
-        <f>$L6*(E6/(SUM($D6:$F6)))</f>
+      <c r="O6" s="16">
+        <f t="shared" si="1"/>
         <v>102.19062048689997</v>
       </c>
-      <c r="P6" s="19">
-        <f>$L6*(F6/(SUM($D6:$F6)))</f>
+      <c r="P6" s="16">
+        <f t="shared" si="1"/>
         <v>33.268629504709629</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="93">
         <f>SUM(L$5:L5)+SUM(L8:L11)</f>
-        <v>920.06374300000004</v>
-      </c>
-      <c r="R6" s="19">
+        <v>920.363743</v>
+      </c>
+      <c r="R6" s="94">
         <f>SUM(M$5:M5)+SUM(M8:M11)</f>
         <v>454.00122900000002</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="94">
         <f>SUM(N$5:N5)+SUM(N8:N11)</f>
-        <v>201.92190384379728</v>
-      </c>
-      <c r="T6" s="19">
+        <v>202.16780548314156</v>
+      </c>
+      <c r="T6" s="94">
         <f>SUM(O$5:O5)+SUM(O8:O11)</f>
-        <v>655.36076520831648</v>
-      </c>
-      <c r="U6" s="21">
+        <v>655.41486356897224</v>
+      </c>
+      <c r="U6" s="95">
         <f>SUM(P$5:P5)+SUM(P8:P11)</f>
         <v>62.781073947886334</v>
       </c>
-      <c r="V6" s="22">
-        <v>0</v>
-      </c>
-      <c r="W6" s="16">
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
         <v>30</v>
       </c>
-      <c r="X6" s="23">
-        <f t="shared" si="11"/>
+      <c r="X6" s="20">
+        <f t="shared" si="12"/>
         <v>1.0070575093992959</v>
       </c>
-      <c r="Y6" s="23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="24">
+      <c r="Y6" s="20">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <f t="shared" si="14"/>
         <v>-102.19062048689997</v>
       </c>
-      <c r="AA6" s="20">
-        <f t="shared" si="14"/>
+      <c r="AA6" s="17">
+        <f t="shared" si="15"/>
         <v>58.115209008390394</v>
       </c>
-      <c r="AB6" s="19">
-        <f t="shared" si="15"/>
+      <c r="AB6" s="16">
+        <f t="shared" si="16"/>
         <v>102.19062048689997</v>
       </c>
-      <c r="AC6" s="21">
-        <f t="shared" si="16"/>
+      <c r="AC6" s="18">
+        <f t="shared" si="17"/>
         <v>33.268629504709629</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="93">
         <f>SUM(AA$5:AA5)+SUM(AA8:AA11)</f>
-        <v>202.10516626952267</v>
-      </c>
-      <c r="AE6" s="19">
+        <v>202.36298000253419</v>
+      </c>
+      <c r="AE6" s="94">
         <f>SUM(AB$5:AB5)+SUM(AB8:AB11)</f>
-        <v>655.17750278259109</v>
-      </c>
-      <c r="AF6" s="21">
+        <v>655.21968904957953</v>
+      </c>
+      <c r="AF6" s="95">
         <f>SUM(AC$5:AC5)+SUM(AC8:AC11)</f>
         <v>62.781073947886334</v>
       </c>
-      <c r="AG6" s="25">
+      <c r="AG6" s="22">
         <f>(L6-(O6+P6))/L6</f>
         <v>0.30022147192667809</v>
       </c>
-      <c r="AH6" s="26">
+      <c r="AH6" s="23">
         <f>(L6-(AB6+AC6))/L6</f>
         <v>0.30022147192667809</v>
       </c>
-      <c r="AI6" s="27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="25">
+      <c r="AI6" s="24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="22">
         <f>SUMPRODUCT(S6:U6,$B$17:$D$17)/Q6</f>
-        <v>0.36192498554468155</v>
-      </c>
-      <c r="AK6" s="26">
+        <v>0.36208594779133541</v>
+      </c>
+      <c r="AK6" s="23">
         <f>SUMPRODUCT(AD6:AF6,$B$17:$D$17)/Q6</f>
-        <v>0.36208433313521071</v>
-      </c>
-      <c r="AL6" s="82">
-        <f t="shared" si="19"/>
-        <v>1.5934759052915748E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+        <v>0.36225559768976046</v>
+      </c>
+      <c r="AL6" s="70">
+        <f t="shared" si="20"/>
+        <v>1.6964989842505052E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="102">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="103">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>10043</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>25480</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>1364</v>
       </c>
-      <c r="G7" s="78">
-        <f t="shared" si="20"/>
+      <c r="G7" s="79">
+        <f t="shared" si="21"/>
         <v>0.27226394122590614</v>
       </c>
-      <c r="H7" s="78">
-        <f t="shared" si="21"/>
+      <c r="H7" s="79">
+        <f t="shared" si="22"/>
         <v>0.69075826171822052</v>
       </c>
-      <c r="I7" s="78">
-        <f t="shared" si="22"/>
+      <c r="I7" s="79">
+        <f t="shared" si="23"/>
         <v>3.697779705587334E-2</v>
       </c>
-      <c r="J7" s="96">
-        <f t="shared" si="9"/>
-        <v>1122.7511579999998</v>
-      </c>
-      <c r="K7" s="100">
+      <c r="J7" s="83">
         <f t="shared" si="10"/>
-        <v>1.7542986843749997</v>
-      </c>
-      <c r="L7" s="92">
+        <v>1123.051158</v>
+      </c>
+      <c r="K7" s="84">
+        <f t="shared" si="11"/>
+        <v>1.7547674343749999</v>
+      </c>
+      <c r="L7" s="72">
         <v>9.1129560000000005</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="15">
         <v>714.37032499999998</v>
       </c>
-      <c r="N7" s="19">
-        <f>$L7*(D7/(SUM($D7:$F7)))</f>
+      <c r="N7" s="16">
+        <f t="shared" si="1"/>
         <v>2.4811293167782686</v>
       </c>
-      <c r="O7" s="19">
-        <f>$L7*(E7/(SUM($D7:$F7)))</f>
+      <c r="O7" s="16">
+        <f t="shared" si="1"/>
         <v>6.2948496456746286</v>
       </c>
-      <c r="P7" s="19">
-        <f>$L7*(F7/(SUM($D7:$F7)))</f>
+      <c r="P7" s="16">
+        <f t="shared" si="1"/>
         <v>0.33697703754710329</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="93">
         <f>SUM(L$5:L6)+SUM(L8:L11)</f>
-        <v>1113.6382019999999</v>
-      </c>
-      <c r="R7" s="19">
+        <v>1113.938202</v>
+      </c>
+      <c r="R7" s="94">
         <f>SUM(M$5:M6)+SUM(M8:M11)</f>
         <v>1916.2513529999999</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="94">
         <f>SUM(N$5:N6)+SUM(N8:N11)</f>
-        <v>260.0371128521877</v>
-      </c>
-      <c r="T7" s="19">
+        <v>260.28301449153196</v>
+      </c>
+      <c r="T7" s="94">
         <f>SUM(O$5:O6)+SUM(O8:O11)</f>
-        <v>757.55138569521648</v>
-      </c>
-      <c r="U7" s="21">
+        <v>757.60548405587224</v>
+      </c>
+      <c r="U7" s="95">
         <f>SUM(P$5:P6)+SUM(P8:P11)</f>
         <v>96.049703452595963</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="19">
         <v>0.75</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="13">
         <v>30</v>
       </c>
-      <c r="X7" s="23">
-        <f t="shared" si="11"/>
+      <c r="X7" s="20">
+        <f t="shared" si="12"/>
         <v>0.49198970030880002</v>
       </c>
-      <c r="Y7" s="23">
-        <f t="shared" si="12"/>
+      <c r="Y7" s="20">
+        <f t="shared" si="13"/>
         <v>0.3689922752316</v>
       </c>
-      <c r="Z7" s="24">
-        <f t="shared" si="13"/>
+      <c r="Z7" s="21">
+        <f t="shared" si="14"/>
         <v>-5.9258573704430288</v>
       </c>
-      <c r="AA7" s="20">
-        <f t="shared" si="14"/>
+      <c r="AA7" s="17">
+        <f t="shared" si="15"/>
         <v>2.8501215920098688</v>
       </c>
-      <c r="AB7" s="19">
-        <f t="shared" si="15"/>
+      <c r="AB7" s="16">
+        <f t="shared" si="16"/>
         <v>5.9258573704430288</v>
       </c>
-      <c r="AC7" s="21">
-        <f t="shared" si="16"/>
+      <c r="AC7" s="18">
+        <f t="shared" si="17"/>
         <v>0.33697703754710329</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="93">
         <f>SUM(AA$5:AA6)+SUM(AA8:AA11)</f>
-        <v>260.22037527791304</v>
-      </c>
-      <c r="AE7" s="19">
+        <v>260.47818901092461</v>
+      </c>
+      <c r="AE7" s="94">
         <f>SUM(AB$5:AB6)+SUM(AB8:AB11)</f>
-        <v>757.36812326949109</v>
-      </c>
-      <c r="AF7" s="21">
+        <v>757.41030953647953</v>
+      </c>
+      <c r="AF7" s="95">
         <f>SUM(AC$5:AC6)+SUM(AC8:AC11)</f>
         <v>96.049703452595963</v>
       </c>
-      <c r="AG7" s="25">
-        <f t="shared" ref="AG7:AG9" si="23">(L7-(O7+P7))/L7</f>
+      <c r="AG7" s="22">
+        <f t="shared" ref="AG7:AG9" si="24">(L7-(O7+P7))/L7</f>
         <v>0.27226394122590614</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="23">
+        <f t="shared" si="18"/>
+        <v>0.31275489446123389</v>
+      </c>
+      <c r="AI7" s="24">
+        <f t="shared" si="19"/>
+        <v>4.0490953235327753E-2</v>
+      </c>
+      <c r="AJ7" s="22">
+        <f>SUMPRODUCT(S7:U7,$B$17:$D$17)/Q7</f>
+        <v>0.3696830852585361</v>
+      </c>
+      <c r="AK7" s="23">
+        <f>SUMPRODUCT(AD7:AF7,$B$17:$D$17)/Q7</f>
+        <v>0.36982325426901957</v>
+      </c>
+      <c r="AL7" s="70">
+        <f t="shared" si="20"/>
+        <v>1.4016901048347075E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="105">
+        <v>8</v>
+      </c>
+      <c r="B8" s="106">
+        <v>0</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="40">
+        <v>276127</v>
+      </c>
+      <c r="E8" s="41">
+        <v>461901</v>
+      </c>
+      <c r="F8" s="42">
+        <v>38023</v>
+      </c>
+      <c r="G8" s="80">
+        <f t="shared" si="21"/>
+        <v>0.35581037844162305</v>
+      </c>
+      <c r="H8" s="80">
+        <f t="shared" si="22"/>
+        <v>0.59519413028267476</v>
+      </c>
+      <c r="I8" s="80">
+        <f t="shared" si="23"/>
+        <v>4.8995491275702241E-2</v>
+      </c>
+      <c r="J8" s="85">
+        <f t="shared" si="10"/>
+        <v>191.773144</v>
+      </c>
+      <c r="K8" s="86">
+        <f t="shared" si="11"/>
+        <v>0.2996455375</v>
+      </c>
+      <c r="L8" s="61">
+        <v>191.773144</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44">
+        <f t="shared" si="1"/>
+        <v>68.234874941579875</v>
+      </c>
+      <c r="O8" s="44">
+        <f t="shared" si="1"/>
+        <v>114.14224965465415</v>
+      </c>
+      <c r="P8" s="44">
+        <f t="shared" si="1"/>
+        <v>9.3960194037659903</v>
+      </c>
+      <c r="Q8" s="96">
+        <v>0</v>
+      </c>
+      <c r="R8" s="97">
+        <v>0</v>
+      </c>
+      <c r="S8" s="97">
+        <v>0</v>
+      </c>
+      <c r="T8" s="97">
+        <v>0</v>
+      </c>
+      <c r="U8" s="98">
+        <v>0</v>
+      </c>
+      <c r="V8" s="47"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="49">
+        <f t="shared" si="14"/>
+        <v>-114.14224965465415</v>
+      </c>
+      <c r="AA8" s="45">
+        <f t="shared" si="15"/>
+        <v>68.234874941579875</v>
+      </c>
+      <c r="AB8" s="44">
+        <f t="shared" si="16"/>
+        <v>114.14224965465415</v>
+      </c>
+      <c r="AC8" s="46">
         <f t="shared" si="17"/>
-        <v>0.31275489446123389</v>
-      </c>
-      <c r="AI7" s="27">
-        <f t="shared" si="18"/>
-        <v>4.0490953235327753E-2</v>
-      </c>
-      <c r="AJ7" s="25">
-        <f>SUMPRODUCT(S7:U7,$B$17:$D$17)/Q7</f>
-        <v>0.36955214831183658</v>
-      </c>
-      <c r="AK7" s="26">
-        <f>SUMPRODUCT(AD7:AF7,$B$17:$D$17)/Q7</f>
-        <v>0.36968379783707467</v>
-      </c>
-      <c r="AL7" s="82">
-        <f t="shared" si="19"/>
-        <v>1.3164952523808671E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+        <v>9.3960194037659903</v>
+      </c>
+      <c r="AD8" s="96">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="97">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="98">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="68"/>
+    </row>
+    <row r="9" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="105">
         <v>8</v>
       </c>
-      <c r="B8" s="47">
-        <v>0</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="49">
-        <v>276127</v>
-      </c>
-      <c r="E8" s="50">
-        <v>461901</v>
-      </c>
-      <c r="F8" s="51">
-        <v>38023</v>
-      </c>
-      <c r="G8" s="79">
-        <f t="shared" si="20"/>
-        <v>0.35581037844162305</v>
-      </c>
-      <c r="H8" s="79">
+      <c r="B9" s="106">
+        <v>1</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="40">
+        <v>4468</v>
+      </c>
+      <c r="E9" s="41">
+        <v>34378</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="80">
         <f t="shared" si="21"/>
-        <v>0.59519413028267476</v>
-      </c>
-      <c r="I8" s="79">
+        <v>0.11046827869257776</v>
+      </c>
+      <c r="H9" s="80">
         <f t="shared" si="22"/>
-        <v>4.8995491275702241E-2</v>
-      </c>
-      <c r="J8" s="97">
-        <f t="shared" si="9"/>
-        <v>191.773144</v>
-      </c>
-      <c r="K8" s="101">
+        <v>0.84997280324383129</v>
+      </c>
+      <c r="I9" s="80">
+        <f t="shared" si="23"/>
+        <v>3.9558918063590957E-2</v>
+      </c>
+      <c r="J9" s="85">
         <f t="shared" si="10"/>
-        <v>0.2996455375</v>
-      </c>
-      <c r="L8" s="70">
-        <v>191.773144</v>
-      </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53">
-        <f>$L8*(D8/(SUM($D8:$F8)))</f>
-        <v>68.234874941579875</v>
-      </c>
-      <c r="O8" s="53">
-        <f>$L8*(E8/(SUM($D8:$F8)))</f>
-        <v>114.14224965465415</v>
-      </c>
-      <c r="P8" s="53">
-        <f>$L8*(F8/(SUM($D8:$F8)))</f>
-        <v>9.3960194037659903</v>
-      </c>
-      <c r="Q8" s="54">
-        <v>0</v>
-      </c>
-      <c r="R8" s="53">
-        <v>0</v>
-      </c>
-      <c r="S8" s="53">
-        <v>0</v>
-      </c>
-      <c r="T8" s="53">
-        <v>0</v>
-      </c>
-      <c r="U8" s="55">
-        <v>0</v>
-      </c>
-      <c r="V8" s="56"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="57">
+        <v>201.76356100000001</v>
+      </c>
+      <c r="K9" s="86">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="58">
-        <f t="shared" si="13"/>
-        <v>-114.14224965465415</v>
-      </c>
-      <c r="AA8" s="54">
-        <f t="shared" si="14"/>
-        <v>68.234874941579875</v>
-      </c>
-      <c r="AB8" s="53">
-        <f t="shared" si="15"/>
-        <v>114.14224965465415</v>
-      </c>
-      <c r="AC8" s="55">
-        <f t="shared" si="16"/>
-        <v>9.3960194037659903</v>
-      </c>
-      <c r="AD8" s="54">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="53">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="80"/>
-    </row>
-    <row r="9" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47">
-        <v>1</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="49">
-        <v>4468</v>
-      </c>
-      <c r="E9" s="50">
-        <v>34378</v>
-      </c>
-      <c r="F9" s="51">
-        <v>1600</v>
-      </c>
-      <c r="G9" s="79">
-        <f t="shared" si="20"/>
-        <v>0.11046827869257776</v>
-      </c>
-      <c r="H9" s="79">
-        <f t="shared" si="21"/>
-        <v>0.84997280324383129</v>
-      </c>
-      <c r="I9" s="79">
-        <f t="shared" si="22"/>
-        <v>3.9558918063590957E-2</v>
-      </c>
-      <c r="J9" s="97">
-        <f t="shared" si="9"/>
-        <v>201.76356100000001</v>
-      </c>
-      <c r="K9" s="101">
-        <f t="shared" si="10"/>
         <v>0.31525556406249999</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="61">
         <v>9.9904170000000008</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="43">
         <v>341.21463799999998</v>
       </c>
-      <c r="N9" s="53">
-        <f>$L9*(D9/(SUM($D9:$F9)))</f>
+      <c r="N9" s="44">
+        <f t="shared" si="1"/>
         <v>1.1036241694110667</v>
       </c>
-      <c r="O9" s="53">
-        <f>$L9*(E9/(SUM($D9:$F9)))</f>
+      <c r="O9" s="44">
+        <f t="shared" si="1"/>
         <v>8.4915827430648285</v>
       </c>
-      <c r="P9" s="53">
-        <f>$L9*(F9/(SUM($D9:$F9)))</f>
+      <c r="P9" s="44">
+        <f t="shared" si="1"/>
         <v>0.39521008752410619</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="96">
         <f>SUM(L$8:L8)</f>
         <v>191.773144</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="97">
         <f>SUM(M$8:M8)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="53">
+      <c r="S9" s="97">
         <f>SUM(N$8:N8)</f>
         <v>68.234874941579875</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="97">
         <f>SUM(O$8:O8)</f>
         <v>114.14224965465415</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="98">
         <f>SUM(P$8:P8)</f>
         <v>9.3960194037659903</v>
       </c>
-      <c r="V9" s="56">
+      <c r="V9" s="47">
         <v>0.5</v>
       </c>
-      <c r="W9" s="50">
+      <c r="W9" s="41">
         <v>30</v>
       </c>
-      <c r="X9" s="57">
-        <f t="shared" si="11"/>
+      <c r="X9" s="48">
+        <f t="shared" si="12"/>
         <v>0.23499588604915198</v>
       </c>
-      <c r="Y9" s="57">
-        <f t="shared" si="12"/>
+      <c r="Y9" s="48">
+        <f t="shared" si="13"/>
         <v>0.11749794302457599</v>
       </c>
-      <c r="Z9" s="58">
-        <f t="shared" si="13"/>
+      <c r="Z9" s="49">
+        <f t="shared" si="14"/>
         <v>-8.3740848000402526</v>
       </c>
-      <c r="AA9" s="54">
-        <f t="shared" si="14"/>
+      <c r="AA9" s="45">
+        <f t="shared" si="15"/>
         <v>1.2211221124356426</v>
       </c>
-      <c r="AB9" s="53">
-        <f t="shared" si="15"/>
+      <c r="AB9" s="44">
+        <f t="shared" si="16"/>
         <v>8.3740848000402526</v>
       </c>
-      <c r="AC9" s="55">
-        <f t="shared" si="16"/>
+      <c r="AC9" s="46">
+        <f t="shared" si="17"/>
         <v>0.39521008752410619</v>
       </c>
-      <c r="AD9" s="54">
+      <c r="AD9" s="96">
         <f>SUM(AA$8:AA8)</f>
         <v>68.234874941579875</v>
       </c>
-      <c r="AE9" s="53">
+      <c r="AE9" s="97">
         <f>SUM(AB$8:AB8)</f>
         <v>114.14224965465415</v>
       </c>
-      <c r="AF9" s="55">
+      <c r="AF9" s="98">
         <f>SUM(AC$8:AC8)</f>
         <v>9.3960194037659903</v>
       </c>
-      <c r="AG9" s="59">
-        <f t="shared" si="23"/>
+      <c r="AG9" s="50">
+        <f t="shared" si="24"/>
         <v>0.11046827869257773</v>
       </c>
-      <c r="AH9" s="60">
-        <f t="shared" si="17"/>
+      <c r="AH9" s="51">
+        <f t="shared" si="18"/>
         <v>0.12222934362355868</v>
       </c>
-      <c r="AI9" s="61">
-        <f t="shared" si="18"/>
+      <c r="AI9" s="52">
+        <f t="shared" si="19"/>
         <v>1.1761064930980947E-2</v>
       </c>
-      <c r="AJ9" s="59">
+      <c r="AJ9" s="50">
         <f>SUMPRODUCT(S9:U9,$B$17:$D$17)/Q9</f>
         <v>0.47484920449815804</v>
       </c>
-      <c r="AK9" s="60">
+      <c r="AK9" s="51">
         <f>SUMPRODUCT(AD9:AF9,$B$17:$D$17)/Q9</f>
         <v>0.47484920449815804</v>
       </c>
-      <c r="AL9" s="80">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46">
+      <c r="AL9" s="68">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="105">
         <v>8</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="106">
         <v>2</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="50">
-        <v>0</v>
-      </c>
-      <c r="E10" s="50">
-        <v>0</v>
-      </c>
-      <c r="F10" s="51">
-        <v>0</v>
-      </c>
-      <c r="G10" s="83" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="83" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="83" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="98">
-        <f t="shared" si="9"/>
-        <v>201.76356100000001</v>
-      </c>
-      <c r="K10" s="102">
+      <c r="D10" s="41">
+        <v>100</v>
+      </c>
+      <c r="E10" s="41">
+        <v>22</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="80">
+        <f t="shared" ref="G10" si="25">D10/SUM($D10:$F10)</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="H10" s="80">
+        <f t="shared" ref="H10" si="26">E10/SUM($D10:$F10)</f>
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="I10" s="80">
+        <f t="shared" ref="I10" si="27">F10/SUM($D10:$F10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="85">
         <f t="shared" si="10"/>
-        <v>0.31525556406249999</v>
-      </c>
-      <c r="L10" s="70">
-        <v>0</v>
-      </c>
-      <c r="M10" s="52">
+        <v>202.06356100000002</v>
+      </c>
+      <c r="K10" s="86">
+        <f t="shared" si="11"/>
+        <v>0.31572431406250001</v>
+      </c>
+      <c r="L10" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="43">
         <v>17.296391</v>
       </c>
-      <c r="N10" s="53">
-        <v>0</v>
-      </c>
-      <c r="O10" s="53">
-        <v>0</v>
-      </c>
-      <c r="P10" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="54">
+      <c r="N10" s="44">
+        <f t="shared" ref="N10" si="28">$L10*(D10/(SUM($D10:$F10)))</f>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="O10" s="44">
+        <f t="shared" ref="O10" si="29">$L10*(E10/(SUM($D10:$F10)))</f>
+        <v>5.4098360655737705E-2</v>
+      </c>
+      <c r="P10" s="44">
+        <f t="shared" ref="P10" si="30">$L10*(F10/(SUM($D10:$F10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="96">
         <f>SUM(L$8:L9)</f>
         <v>201.76356100000001</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="97">
         <f>SUM(M$8:M9)</f>
         <v>341.21463799999998</v>
       </c>
-      <c r="S10" s="53">
+      <c r="S10" s="97">
         <f>SUM(N$8:N9)</f>
         <v>69.338499110990938</v>
       </c>
-      <c r="T10" s="53">
+      <c r="T10" s="97">
         <f>SUM(O$8:O9)</f>
         <v>122.63383239771898</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10" s="98">
         <f>SUM(P$8:P9)</f>
         <v>9.7912294912900961</v>
       </c>
-      <c r="V10" s="71">
+      <c r="V10" s="62">
         <v>1</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="41">
         <v>30</v>
       </c>
-      <c r="X10" s="57">
-        <f t="shared" ref="X10:X11" si="24">W10*M10*0.0000229568</f>
+      <c r="X10" s="48">
+        <f t="shared" ref="X10:X11" si="31">W10*M10*0.0000229568</f>
         <v>1.1912093667264001E-2</v>
       </c>
-      <c r="Y10" s="57">
-        <f t="shared" ref="Y10:Y11" si="25">X10*V10</f>
+      <c r="Y10" s="48">
+        <f t="shared" ref="Y10:Y11" si="32">X10*V10</f>
         <v>1.1912093667264001E-2</v>
       </c>
-      <c r="Z10" s="58">
-        <f t="shared" ref="Z10:Z11" si="26">Y10-O10</f>
-        <v>1.1912093667264001E-2</v>
-      </c>
-      <c r="AA10" s="54">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="53">
-        <f t="shared" ref="AB10:AB11" si="27">IF(Z10&lt;=0,O10-Y10,O10-Y10+Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="55">
-        <f t="shared" ref="AC10:AC11" si="28">P10</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="54">
+      <c r="Z10" s="49">
+        <f t="shared" ref="Z10:Z11" si="33">Y10-O10</f>
+        <v>-4.2186266988473706E-2</v>
+      </c>
+      <c r="AA10" s="45">
+        <f t="shared" si="15"/>
+        <v>0.25781373301152627</v>
+      </c>
+      <c r="AB10" s="44">
+        <f t="shared" ref="AB10:AB11" si="34">IF(Z10&lt;=0,O10-Y10,O10-Y10+Z10)</f>
+        <v>4.2186266988473706E-2</v>
+      </c>
+      <c r="AC10" s="46">
+        <f t="shared" ref="AC10:AC11" si="35">P10</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="96">
         <f>SUM(AA$8:AA9)</f>
         <v>69.455997054015512</v>
       </c>
-      <c r="AE10" s="53">
+      <c r="AE10" s="97">
         <f>SUM(AB$8:AB9)</f>
         <v>122.5163344546944</v>
       </c>
-      <c r="AF10" s="55">
+      <c r="AF10" s="98">
         <f>SUM(AC$8:AC9)</f>
         <v>9.7912294912900961</v>
       </c>
-      <c r="AG10" s="84" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" s="85" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" s="86" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" s="59">
-        <f t="shared" ref="AJ10:AJ11" si="29">SUMPRODUCT(S10:U10,$B$17:$D$17)/Q10</f>
+      <c r="AG10" s="87">
+        <f>(L10-(O10+P10))/L10</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="AH10" s="88">
+        <f t="shared" ref="AH10" si="36">(L10-(AB10+AC10))/L10</f>
+        <v>0.85937911003842093</v>
+      </c>
+      <c r="AI10" s="89">
+        <f t="shared" ref="AI10" si="37">AH10-AG10</f>
+        <v>3.9706978890879929E-2</v>
+      </c>
+      <c r="AJ10" s="50">
+        <f t="shared" ref="AJ10:AJ11" si="38">SUMPRODUCT(S10:U10,$B$17:$D$17)/Q10</f>
         <v>0.46522407279743999</v>
       </c>
-      <c r="AK10" s="60">
-        <f t="shared" ref="AK10:AK11" si="30">SUMPRODUCT(AD10:AF10,$B$17:$D$17)/Q10</f>
+      <c r="AK10" s="51">
+        <f t="shared" ref="AK10:AK11" si="39">SUMPRODUCT(AD10:AF10,$B$17:$D$17)/Q10</f>
         <v>0.46568995649791484</v>
       </c>
-      <c r="AL10" s="80">
-        <f t="shared" ref="AL10:AL11" si="31">AK10-AJ10</f>
+      <c r="AL10" s="68">
+        <f t="shared" ref="AL10:AL11" si="40">AK10-AJ10</f>
         <v>4.6588370047484506E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46">
+    <row r="11" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="105">
         <v>8</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="106">
         <v>2</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="41">
         <v>57</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="41">
         <v>649</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="42">
         <v>280</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="80">
         <f>D11/SUM($D11:$F11)</f>
         <v>5.7809330628803245E-2</v>
       </c>
-      <c r="H11" s="79">
-        <f t="shared" si="21"/>
+      <c r="H11" s="80">
+        <f t="shared" si="22"/>
         <v>0.6582150101419878</v>
       </c>
-      <c r="I11" s="79">
-        <f t="shared" si="22"/>
+      <c r="I11" s="80">
+        <f t="shared" si="23"/>
         <v>0.28397565922920892</v>
       </c>
-      <c r="J11" s="97">
-        <f t="shared" si="9"/>
-        <v>202.00502700000001</v>
-      </c>
-      <c r="K11" s="101">
+      <c r="J11" s="85">
         <f t="shared" si="10"/>
-        <v>0.31563285468750002</v>
-      </c>
-      <c r="L11" s="70">
+        <v>202.30502700000002</v>
+      </c>
+      <c r="K11" s="86">
+        <f t="shared" si="11"/>
+        <v>0.31610160468750004</v>
+      </c>
+      <c r="L11" s="61">
         <v>0.24146599999999999</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="43">
         <v>95.490200000000002</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="44">
         <f>$L11*(D11/(SUM($D11:$F11)))</f>
         <v>1.3958987829614604E-2</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="44">
         <f>$L11*(E11/(SUM($D11:$F11)))</f>
         <v>0.15893654563894521</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="44">
         <f>$L11*(F11/(SUM($D11:$F11)))</f>
         <v>6.8570466531440152E-2</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="96">
         <f>SUM(L$8:L10)</f>
-        <v>201.76356100000001</v>
-      </c>
-      <c r="R11" s="53">
+        <v>202.06356100000002</v>
+      </c>
+      <c r="R11" s="97">
         <f>SUM(M$8:M10)</f>
         <v>358.51102900000001</v>
       </c>
-      <c r="S11" s="53">
+      <c r="S11" s="97">
         <f>SUM(N$8:N10)</f>
-        <v>69.338499110990938</v>
-      </c>
-      <c r="T11" s="53">
+        <v>69.584400750335206</v>
+      </c>
+      <c r="T11" s="97">
         <f>SUM(O$8:O10)</f>
-        <v>122.63383239771898</v>
-      </c>
-      <c r="U11" s="55">
+        <v>122.68793075837472</v>
+      </c>
+      <c r="U11" s="98">
         <f>SUM(P$8:P10)</f>
         <v>9.7912294912900961</v>
       </c>
-      <c r="V11" s="71">
+      <c r="V11" s="62">
         <v>1</v>
       </c>
-      <c r="W11" s="50">
+      <c r="W11" s="41">
         <v>30</v>
       </c>
-      <c r="X11" s="57">
-        <f t="shared" si="24"/>
+      <c r="X11" s="48">
+        <f t="shared" si="31"/>
         <v>6.57644827008E-2</v>
       </c>
-      <c r="Y11" s="57">
-        <f t="shared" si="25"/>
+      <c r="Y11" s="48">
+        <f t="shared" si="32"/>
         <v>6.57644827008E-2</v>
       </c>
-      <c r="Z11" s="58">
-        <f t="shared" si="26"/>
+      <c r="Z11" s="49">
+        <f t="shared" si="33"/>
         <v>-9.3172062938145214E-2</v>
       </c>
-      <c r="AA11" s="54">
-        <f t="shared" si="14"/>
+      <c r="AA11" s="45">
+        <f t="shared" si="15"/>
         <v>7.9723470530414606E-2</v>
       </c>
-      <c r="AB11" s="53">
-        <f t="shared" si="27"/>
+      <c r="AB11" s="44">
+        <f t="shared" si="34"/>
         <v>9.3172062938145214E-2</v>
       </c>
-      <c r="AC11" s="55">
-        <f t="shared" si="28"/>
+      <c r="AC11" s="46">
+        <f t="shared" si="35"/>
         <v>6.8570466531440152E-2</v>
       </c>
-      <c r="AD11" s="54">
+      <c r="AD11" s="96">
         <f>SUM(AA$8:AA10)</f>
-        <v>69.455997054015512</v>
-      </c>
-      <c r="AE11" s="53">
+        <v>69.713810787027043</v>
+      </c>
+      <c r="AE11" s="97">
         <f>SUM(AB$8:AB10)</f>
-        <v>122.5163344546944</v>
-      </c>
-      <c r="AF11" s="55">
+        <v>122.55852072168288</v>
+      </c>
+      <c r="AF11" s="98">
         <f>SUM(AC$8:AC10)</f>
         <v>9.7912294912900961</v>
       </c>
-      <c r="AG11" s="59">
-        <f t="shared" ref="AG11" si="32">(L11-(O11+P11))/L11</f>
+      <c r="AG11" s="50">
+        <f t="shared" ref="AG11" si="41">(L11-(O11+P11))/L11</f>
         <v>5.7809330628803252E-2</v>
       </c>
-      <c r="AH11" s="60">
-        <f t="shared" ref="AH11" si="33">(L11-(AB11+AC11))/L11</f>
+      <c r="AH11" s="51">
+        <f t="shared" ref="AH11" si="42">(L11-(AB11+AC11))/L11</f>
         <v>0.33016437316398428</v>
       </c>
-      <c r="AI11" s="61">
-        <f t="shared" ref="AI11" si="34">AH11-AG11</f>
+      <c r="AI11" s="52">
+        <f t="shared" ref="AI11" si="43">AH11-AG11</f>
         <v>0.27235504253518106</v>
       </c>
-      <c r="AJ11" s="59">
-        <f t="shared" si="29"/>
-        <v>0.46522407279743999</v>
-      </c>
-      <c r="AK11" s="60">
-        <f t="shared" si="30"/>
-        <v>0.46568995649791484</v>
-      </c>
-      <c r="AL11" s="80">
-        <f t="shared" si="31"/>
-        <v>4.6588370047484506E-4</v>
+      <c r="AJ11" s="50">
+        <f t="shared" si="38"/>
+        <v>0.46580386110294342</v>
+      </c>
+      <c r="AK11" s="51">
+        <f t="shared" si="39"/>
+        <v>0.46631621488331393</v>
+      </c>
+      <c r="AL11" s="68">
+        <f t="shared" si="40"/>
+        <v>5.1235378037051138E-4</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
@@ -2295,9 +2309,6 @@
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
@@ -2305,16 +2316,16 @@
         <v>13</v>
       </c>
       <c r="N14"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="N15"/>
       <c r="O15" s="4"/>
-      <c r="Q15" s="68"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2357,30 +2368,30 @@
       <c r="U18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
-      <c r="AW18" s="64"/>
-      <c r="AX18" s="64"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="L19" s="11"/>
@@ -2388,30 +2399,30 @@
       <c r="O19" s="11"/>
       <c r="U19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="64"/>
-      <c r="AX19" s="64"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -2420,30 +2431,30 @@
       <c r="O20" s="11"/>
       <c r="U20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -2451,58 +2462,58 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="64"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="64"/>
-      <c r="AO21" s="64"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="64"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="64"/>
-      <c r="AT21" s="64"/>
-      <c r="AU21" s="64"/>
-      <c r="AV21" s="64"/>
-      <c r="AW21" s="64"/>
-      <c r="AX21" s="64"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="64"/>
-      <c r="AO22" s="64"/>
-      <c r="AP22" s="64"/>
-      <c r="AQ22" s="64"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="64"/>
-      <c r="AU22" s="64"/>
-      <c r="AV22" s="64"/>
-      <c r="AW22" s="64"/>
-      <c r="AX22" s="64"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -2515,30 +2526,30 @@
       <c r="L23"/>
       <c r="M23" s="11"/>
       <c r="O23" s="4"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="64"/>
-      <c r="AU23" s="64"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="64"/>
-      <c r="AX23" s="64"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
@@ -2549,30 +2560,30 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="O24" s="4"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="64"/>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="64"/>
-      <c r="AR24" s="64"/>
-      <c r="AS24" s="64"/>
-      <c r="AT24" s="64"/>
-      <c r="AU24" s="64"/>
-      <c r="AV24" s="64"/>
-      <c r="AW24" s="64"/>
-      <c r="AX24" s="64"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
@@ -2588,30 +2599,30 @@
       <c r="S25" s="11"/>
       <c r="Y25"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="64"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="64"/>
-      <c r="AU25" s="64"/>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
@@ -2623,30 +2634,30 @@
       <c r="K26" s="9"/>
       <c r="O26" s="4"/>
       <c r="S26" s="11"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55"/>
+      <c r="AX26" s="55"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -2659,282 +2670,282 @@
       <c r="O27" s="4"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="55"/>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="55"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="O28" s="4"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="55"/>
+      <c r="AR28" s="55"/>
+      <c r="AS28" s="55"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="L29" s="9"/>
       <c r="M29" s="11"/>
       <c r="O29" s="11"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="64"/>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
-      <c r="AX31" s="64"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="64"/>
-      <c r="AV32" s="64"/>
-      <c r="AW32" s="64"/>
-      <c r="AX32" s="64"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="55"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="55"/>
+      <c r="AX32" s="55"/>
     </row>
     <row r="33" spans="2:50" x14ac:dyDescent="0.35">
       <c r="E33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
     </row>
     <row r="34" spans="2:50" x14ac:dyDescent="0.35">
       <c r="O34" s="4"/>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="55"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="55"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
     </row>
     <row r="35" spans="2:50" x14ac:dyDescent="0.35">
       <c r="O35" s="4"/>
       <c r="Y35"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
+      <c r="AP35" s="55"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="55"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="55"/>
+      <c r="AV35" s="55"/>
+      <c r="AW35" s="55"/>
+      <c r="AX35" s="55"/>
     </row>
     <row r="36" spans="2:50" x14ac:dyDescent="0.35">
       <c r="O36" s="4"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="63"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="64"/>
-      <c r="AO36" s="64"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="64"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="55"/>
+      <c r="AS36" s="55"/>
+      <c r="AT36" s="55"/>
+      <c r="AU36" s="55"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
     </row>
     <row r="37" spans="2:50" x14ac:dyDescent="0.35">
       <c r="O37" s="4"/>
